--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฐ(24).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฐ(24).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7F90C2-ED69-3941-804C-6EB8D4841C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{5E7F90C2-ED69-3941-804C-6EB8D4841C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECB8D56-BE4C-4422-8287-D0B6A7F07554}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1650" windowWidth="21120" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>headword</t>
   </si>
@@ -43,9 +43,6 @@
     <t>ฐาน ๑</t>
   </si>
   <si>
-    <t>ฐาน ๒, ฐาน-, ฐานะ</t>
-  </si>
-  <si>
     <t>ฐานันดร</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>ฐานียะ</t>
   </si>
   <si>
-    <t>ฐาปน-, ฐาปนา</t>
-  </si>
-  <si>
     <t>ฐายี</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>ฐานสิงห์</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๑๖ เรียกว่า ฐอ ฐาน เป็นอักษรสูง ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากดหรือแม่กด เช่น รัฐ อัฐ.</t>
-  </si>
-  <si>
     <t>ก. ตระกัด, ยินดี, เช่น ฐกัดนี้แก่เถ้าตุ่ยต่วมฤๅจตรู (ม. คำหลวง ชูชก).</t>
   </si>
   <si>
@@ -130,33 +121,21 @@
     <t>น. ฐานบัวหน้ากระดานบัวควํ่าบัวหงาย.</t>
   </si>
   <si>
-    <t>น. โครงสร้างตอนล่างสุดที่รองรับอาคารหรือสิ่งปลูกสร้าง; ส่วนของอาคารที่ใช้ถ่ายนํ้าหนักอาคารลงสู่ดิน.</t>
-  </si>
-  <si>
     <t>น. ฐานเท้าสิงห์.</t>
   </si>
   <si>
-    <t>น. ตำแหน่งหน้าที่ เช่น เธอต้องรับผิดชอบในฐานที่เป็นหัวหน้าห้อง; หลักฐาน, ลำดับความเป็นอยู่ในสังคม เช่น ทุกคนยอมรับรู้ฐานะในสังคมของเขา.; น. ตำแหน่งหน้าที่ เช่น เธอต้องรับผิดชอบในฐานที่เป็นหัวหน้าห้อง; หลักฐาน, ลำดับความเป็นอยู่ในสังคม เช่น ทุกคนยอมรับรู้ฐานะในสังคมของเขา.; น. ตำแหน่งหน้าที่ เช่น เธอต้องรับผิดชอบในฐานที่เป็นหัวหน้าห้อง; หลักฐาน, ลำดับความเป็นอยู่ในสังคม เช่น ทุกคนยอมรับรู้ฐานะในสังคมของเขา.</t>
-  </si>
-  <si>
     <t>สัน. เพราะ เช่น ถูกลงโทษฐานละเลยหน้าที่.</t>
   </si>
   <si>
     <t>ว. ควรแก่ตำแหน่ง, ตั้งอยู่ในฐานะ, มักประกอบท้ายศัพท์ เช่น ครุฐานียะ ว่า ตั้งอยู่ในฐานะเป็นครู.</t>
   </si>
   <si>
-    <t>น. การก่อสร้าง, การแต่งตั้ง, การซ่อมแซม, การตั้งขึ้น.; น. การก่อสร้าง, การแต่งตั้ง, การซ่อมแซม, การตั้งขึ้น.</t>
-  </si>
-  <si>
     <t>ว. ตั้งอยู่, ดำรงอยู่, มักประกอบท้ายศัพท์ เช่น กัปปัฏฐายี ว่า ตั้งอยู่กัปหนึ่ง.</t>
   </si>
   <si>
     <t>ก. ยืนอยู่, ตั้งอยู่แล้ว.</t>
   </si>
   <si>
-    <t>น. การตั้งอยู่, การยืนอยู่, การดำรงอยู่; การเป็นไป, ความมีชีวิตอยู่; การหยุดอยู่; ความมั่นคง, ความอดทน; ตำแหน่ง, ที่อยู่; ข้อบังคับ, ข้อบัญญัติ; ความแน่นอน.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ลูกคำของ "ฐาน ๑" คือ ฐานกรณ์ ฐานเขียง ฐานเชิงบาตร ฐานเท้าสิงห์ ฐานบัทม์ ฐานราก ฐานสิงห์ </t>
   </si>
   <si>
@@ -187,29 +166,89 @@
     <t>related_word</t>
   </si>
   <si>
-    <t>น. ลำดับชั้นบุคคลในราชสกุลมี เจ้าฟ้า พระองค์เจ้า หม่อมเจ้า เป็นต้น, ลำดับชั้นยศบุคคลในราชการมี เจ้าพระยา พระยา พลเอก เป็นต้น.; ดู ฐาน ๒, ฐาน-, ฐานะ.</t>
-  </si>
-  <si>
-    <t>น. นักหนังสือพิมพ์.; ดู ฐาน ๒, ฐาน-, ฐานะ.</t>
-  </si>
-  <si>
-    <t>น. ลำดับตำแหน่งยศพระสงฆ์ที่พระราชาคณะมีอำนาจตั้งสมณศักดิ์ให้ตามทำเนียบ เช่น พระปลัด พระสมุห์ พระใบฎีกา เป็นฐานานุกรมของพระราชาคณะชั้นสามัญ พระครูปลัด พระครูสมุห์ พระครูใบฎีกา เป็นฐานานุกรมของพระราชาคณะชั้นราชขึ้นไป.; ดู ฐาน ๒, ฐาน-, ฐานะ.</t>
-  </si>
-  <si>
-    <t>ว. สมควรแก่ฐานะ.; ดู ฐาน ๒, ฐาน-, ฐานะ.</t>
-  </si>
-  <si>
-    <t>ว. ตามควรแก่เกียรติศักดิ์.; น. ศักดิ์ใหญ่และศักดิ์น้อย, ถ้าศักดิ์นาสูงกว่า ๔๐๐ ขึ้นไป เรียกว่า สูงนา หรือ ศักดิ์ใหญ่ ถ้าศักดิ์นาต่ำกว่า ๔๐๐ เรียกว่า ต่ำนา หรือ ศักดิ์น้อย; ศักดิ์ที่พระราชาคณะมีอำนาจตั้งฐานานุกรมได้.; ดู ฐาน ๒, ฐาน-, ฐานะ.</t>
-  </si>
-  <si>
     <t>น. เส้นหรือพื้นที่ซึ่งถือว่าเป็นส่วนรองรับรูปเรขาคณิต เช่น ฐานของสามเหลี่ยม ฐานของกรวย, จำนวนที่ใช้เป็นหลักในการสร้างจำนวนอื่น ๆ โดยการยกกำลังหรือหาค่าของลอการิทึม เช่น จำนวน ๓ ใน ๓^๔ (= ๘๑) จำนวน ๗ ใน log_7 49 (= ๒), จำนวนที่บอกปริมาณในแต่ละหลักของตัวเลข เช่น เมื่อ ๖๓๕ เป็นตัวเลขฐาน ๑๐ ใช้สัญลักษณ์ว่า ๖๓๕_๑๐ ซึ่งแทน ๕ + (๓ x ๑๐) + (๖ x ๑๐^๒) เมื่อ ๖๓๕ เป็นตัวเลขฐาน ๗ ใช้สัญลักษณ์ว่า ๖๓๕_๗ ซึ่งแทน ๕ + (๓ x ๗) + (๖ x ๗^๒).</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๑๖ เรียกว่า ฐอ ฐาน เป็นอักษรสูง ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากดหรือแม่กด เช่น รัฐ อัฐ.</t>
+  </si>
+  <si>
+    <t>ฐาน ๒</t>
+  </si>
+  <si>
+    <t>ฐานะ</t>
+  </si>
+  <si>
+    <t>ฐาน-</t>
+  </si>
+  <si>
+    <t>ว. ตามควรแก่เกียรติศักดิ์.</t>
+  </si>
+  <si>
+    <t>ฐาปนา</t>
+  </si>
+  <si>
+    <t>ฐาปน-</t>
+  </si>
+  <si>
+    <t>น. การก่อสร้าง, การแต่งตั้ง, การซ่อมแซม, การตั้งขึ้น.</t>
+  </si>
+  <si>
+    <t>น. ตำแหน่งหน้าที่ เช่น เธอต้องรับผิดชอบในฐานที่เป็นหัวหน้าห้อง</t>
+  </si>
+  <si>
+    <t>น. หลักฐาน, ลำดับความเป็นอยู่ในสังคม เช่น ทุกคนยอมรับรู้ฐานะในสังคมของเขา.</t>
+  </si>
+  <si>
+    <t>น. ลำดับชั้นบุคคลในราชสกุลมี เจ้าฟ้า พระองค์เจ้า หม่อมเจ้า เป็นต้น, ลำดับชั้นยศบุคคลในราชการมี เจ้าพระยา พระยา พลเอก เป็นต้น.</t>
+  </si>
+  <si>
+    <t>น. นักหนังสือพิมพ์.</t>
+  </si>
+  <si>
+    <t>น. ลำดับตำแหน่งยศพระสงฆ์ที่พระราชาคณะมีอำนาจตั้งสมณศักดิ์ให้ตามทำเนียบ เช่น พระปลัด พระสมุห์ พระใบฎีกา เป็นฐานานุกรมของพระราชาคณะชั้นสามัญ พระครูปลัด พระครูสมุห์ พระครูใบฎีกา เป็นฐานานุกรมของพระราชาคณะชั้นราชขึ้นไป.</t>
+  </si>
+  <si>
+    <t>ว. สมควรแก่ฐานะ.</t>
+  </si>
+  <si>
+    <t>น. ความแน่นอน.</t>
+  </si>
+  <si>
+    <t>น. ข้อบังคับ, ข้อบัญญัติ</t>
+  </si>
+  <si>
+    <t>น. การหยุดอยู่</t>
+  </si>
+  <si>
+    <t>น. ตำแหน่ง, ที่อยู่</t>
+  </si>
+  <si>
+    <t>น. ความมั่นคง, ความอดทน</t>
+  </si>
+  <si>
+    <t>น. การเป็นไป, ความมีชีวิตอยู่</t>
+  </si>
+  <si>
+    <t>น. การตั้งอยู่, การยืนอยู่, การดำรงอยู่</t>
+  </si>
+  <si>
+    <t>น. โครงสร้างตอนล่างสุดที่รองรับอาคารหรือสิ่งปลูกสร้าง</t>
+  </si>
+  <si>
+    <t>น. ส่วนของอาคารที่ใช้ถ่ายนํ้าหนักอาคารลงสู่ดิน.</t>
+  </si>
+  <si>
+    <t>น. ศักดิ์ใหญ่และศักดิ์น้อย, ถ้าศักดิ์นาสูงกว่า ๔๐๐ ขึ้นไป เรียกว่า สูงนา หรือ ศักดิ์ใหญ่ ถ้าศักดิ์นาต่ำกว่า ๔๐๐ เรียกว่า ต่ำนา หรือ ศักดิ์น้อย</t>
+  </si>
+  <si>
+    <t>น. ศักดิ์ที่พระราชาคณะมีอำนาจตั้งฐานานุกรมได้.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,11 +258,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="TH Sarabun Chula"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH Sarabun Chula"/>
     </font>
   </fonts>
   <fills count="3">
@@ -240,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,16 +305,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -290,6 +352,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,21 +645,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="70.33203125" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,180 +670,174 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="81" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="81" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
@@ -785,85 +845,216 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="189" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
